--- a/classfiers/mega/elm/nearmiss/ELM_lin_nearmiss_results.xlsx
+++ b/classfiers/mega/elm/nearmiss/ELM_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8541666666666667</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9687364307425098</v>
+        <v>0.9677589852008457</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.8095238095238095</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.7391304347826086</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9503105590062111</v>
+        <v>0.9783068783068783</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8913043478260869</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8631578947368421</v>
+        <v>0.7954545454545455</v>
       </c>
       <c r="E4" t="n">
-        <v>0.976929902395741</v>
+        <v>0.9220572640509014</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>0.8809523809523809</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8604651162790699</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9625668449197861</v>
+        <v>0.9814814814814815</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.875</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.84</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.8604651162790699</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9697777777777777</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8658241927668385</v>
+        <v>0.8716791979949875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8187017826893603</v>
+        <v>0.8119393414135578</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8415319615105418</v>
+        <v>0.8403373715001623</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9656643029684051</v>
+        <v>0.9615875884746879</v>
       </c>
     </row>
   </sheetData>
